--- a/Data/Vanilla Expanded/Vanilla Skills Expanded - 2854967442/2854967442.xlsx
+++ b/Data/Vanilla Expanded/Vanilla Skills Expanded - 2854967442/2854967442.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.8.6\Vanilla Skills Expanded - 2854967442\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Vanilla Skills Expanded - 2854967442\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0705EA-1AE0-4DD6-87E4-84775B6AEB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0775B51-DD18-42EF-9189-E83629CBB3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240523" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-09에 새로 추가된 노드들 (18개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F176" authorId="0" shapeId="0" xr:uid="{217F2CCA-0AEB-49C7-A83D-D6D6AD7D3A2E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-01-09에 새로 추가된 노드들 (18개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="773">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -65,6 +101,9 @@
     <t>Sharpshooting</t>
   </si>
   <si>
+    <t>정밀 사격</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Precision.description</t>
   </si>
   <si>
@@ -74,6 +113,9 @@
     <t>An expertise in accuracy when firing both high-tech and low-tech ranged weapons.</t>
   </si>
   <si>
+    <t>원거리 무기의 정확도가 상승합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+CloseQuarters.label</t>
   </si>
   <si>
@@ -83,6 +125,9 @@
     <t>Aiming</t>
   </si>
   <si>
+    <t>빠른 조준</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+CloseQuarters.description</t>
   </si>
   <si>
@@ -92,6 +137,9 @@
     <t>An expertise in aiming when firing both high-tech and low-tech ranged weapons.</t>
   </si>
   <si>
+    <t>원거리 무기의 조준 시간이 감소합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Gunner.label</t>
   </si>
   <si>
@@ -101,6 +149,9 @@
     <t>Reloading</t>
   </si>
   <si>
+    <t>빠른 재장전</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Gunner.description</t>
   </si>
   <si>
@@ -110,6 +161,9 @@
     <t>An expertise in reloading both high-tech and low-tech ranged weapons.</t>
   </si>
   <si>
+    <t>모든 원거리 무기의 재사용 대기시간이 감소합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Sharp.label</t>
   </si>
   <si>
@@ -119,6 +173,9 @@
     <t>Piercing</t>
   </si>
   <si>
+    <t>관통</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Sharp.description</t>
   </si>
   <si>
@@ -128,6 +185,9 @@
     <t>An expertise in armor piercing when using sharp melee weapons.</t>
   </si>
   <si>
+    <t>근접 무기를 사용하면 방어구 관통 보너스를 얻습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Blunt.label</t>
   </si>
   <si>
@@ -146,6 +206,9 @@
     <t>An expertise in the fast-paced armed melee combat.</t>
   </si>
   <si>
+    <t>근접 무기의 공격 후 대기시간이 줄어듭니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tamer.label</t>
   </si>
   <si>
@@ -155,6 +218,9 @@
     <t>Taming</t>
   </si>
   <si>
+    <t>길들이기</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tamer.description</t>
   </si>
   <si>
@@ -164,6 +230,9 @@
     <t>An expertise in taming wild animals.</t>
   </si>
   <si>
+    <t>야생 동물들을 더 높은 확률로 길들이고 실패시 공격당할 확률을 낮춥니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Rancher.label</t>
   </si>
   <si>
@@ -173,6 +242,9 @@
     <t>Ranching</t>
   </si>
   <si>
+    <t>목축</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Rancher.description</t>
   </si>
   <si>
@@ -182,6 +254,9 @@
     <t>An expertise in ranching and animal produce gathering.</t>
   </si>
   <si>
+    <t>길들인 동물들에게서 더 많은 자원을 더 빠르게 얻습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Hunter.label</t>
   </si>
   <si>
@@ -191,6 +266,9 @@
     <t>Hunting</t>
   </si>
   <si>
+    <t>사냥</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Hunter.description</t>
   </si>
   <si>
@@ -200,6 +278,9 @@
     <t>An expertise in the art of hunting.</t>
   </si>
   <si>
+    <t>사냥 기술을 더욱 갈고 닦습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Trainer.label</t>
   </si>
   <si>
@@ -209,6 +290,9 @@
     <t>Handling</t>
   </si>
   <si>
+    <t>훈련</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Trainer.description</t>
   </si>
   <si>
@@ -218,6 +302,9 @@
     <t>An expertise in handling and training colony animals.</t>
   </si>
   <si>
+    <t>길들인 동물들을 더 높은 확률로 훈련시킵니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+QualityExpert.label</t>
   </si>
   <si>
@@ -227,6 +314,9 @@
     <t>Art Quality</t>
   </si>
   <si>
+    <t>멋진 예술</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+QualityExpert.description</t>
   </si>
   <si>
@@ -236,6 +326,9 @@
     <t>An expertise in creating works of art with increased quality.</t>
   </si>
   <si>
+    <t>더욱 뛰어난 예술 작품을 만들 확률이 상승합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+QuantityExpert.label</t>
   </si>
   <si>
@@ -245,6 +338,9 @@
     <t>Art Quantity</t>
   </si>
   <si>
+    <t>빠른 예술</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+QuantityExpert.description</t>
   </si>
   <si>
@@ -254,6 +350,9 @@
     <t>An expertise in creating works of art quickly and efficiently.</t>
   </si>
   <si>
+    <t>예술품을 더 빠르고 효율적으로 제작합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Flooring.label</t>
   </si>
   <si>
@@ -263,6 +362,9 @@
     <t>Flooring</t>
   </si>
   <si>
+    <t>바닥 시공</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Flooring.description</t>
   </si>
   <si>
@@ -272,6 +374,9 @@
     <t>An expertise in constructing floors.</t>
   </si>
   <si>
+    <t>바닥재를 건설할 때 작업 속도가 빨라집니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Repairman.label</t>
   </si>
   <si>
@@ -281,6 +386,9 @@
     <t>Repairing</t>
   </si>
   <si>
+    <t>수리</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Repairman.description</t>
   </si>
   <si>
@@ -290,6 +398,9 @@
     <t>An expertise in repairing broken down and damaged structures.</t>
   </si>
   <si>
+    <t>파손되거나 망가진 구조물을 더 빠르게 수리합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Architect.label</t>
   </si>
   <si>
@@ -299,6 +410,9 @@
     <t>Architecture</t>
   </si>
   <si>
+    <t>예술적인 건설</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Architect.description</t>
   </si>
   <si>
@@ -308,6 +422,9 @@
     <t>An expertise in creating complex and beautiful buildings.</t>
   </si>
   <si>
+    <t>건설 시 복잡하고 아름다운 구조물이 더 자주 등장합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Foreman.label</t>
   </si>
   <si>
@@ -317,6 +434,9 @@
     <t>Building</t>
   </si>
   <si>
+    <t>빠른 건설</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Foreman.description</t>
   </si>
   <si>
@@ -326,6 +446,9 @@
     <t>An expertise in constructing massive amounts of buildings quickly and efficiently.</t>
   </si>
   <si>
+    <t>대량의 구조물들을 빠르고 효율적으로 건설합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Butcher.label</t>
   </si>
   <si>
@@ -335,6 +458,9 @@
     <t>Butchering</t>
   </si>
   <si>
+    <t>도축</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Butcher.description</t>
   </si>
   <si>
@@ -344,6 +470,9 @@
     <t>An expertise in butchering dead animals.</t>
   </si>
   <si>
+    <t>더 빠르고 효율적으로 도축합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+DrugChef.label</t>
   </si>
   <si>
@@ -353,6 +482,9 @@
     <t>Drug Cooking</t>
   </si>
   <si>
+    <t>약물 제조</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+DrugChef.description</t>
   </si>
   <si>
@@ -362,6 +494,9 @@
     <t>An expertise in creating drugs.</t>
   </si>
   <si>
+    <t>더 빠르게 약물을 제조합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+TopChef.label</t>
   </si>
   <si>
@@ -371,6 +506,9 @@
     <t>Food Hygiene</t>
   </si>
   <si>
+    <t>식품 위생</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+TopChef.description</t>
   </si>
   <si>
@@ -380,6 +518,9 @@
     <t>An expertise in creating safe to consume meals in any environment.</t>
   </si>
   <si>
+    <t>만든 음식이 위생적으로 더 안전해집니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+IndustrialChef.label</t>
   </si>
   <si>
@@ -389,6 +530,9 @@
     <t>Feeding</t>
   </si>
   <si>
+    <t>대량 조리</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+IndustrialChef.description</t>
   </si>
   <si>
@@ -398,6 +542,9 @@
     <t>An expertise in creating large amounts of meals to feed many people quickly.</t>
   </si>
   <si>
+    <t>많은 사람들이 먹을 수 있도록 더 빠르게 조리합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+MechanoidExpert.label</t>
   </si>
   <si>
@@ -407,6 +554,9 @@
     <t>Disassembler</t>
   </si>
   <si>
+    <t>메카노이드 분해</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+MechanoidExpert.description</t>
   </si>
   <si>
@@ -416,6 +566,9 @@
     <t>An expertise in all things mechanoids, including shredding and disassembling them.</t>
   </si>
   <si>
+    <t>메카노이드를 더육 빠르고 효율적으로 분해합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tailor.label</t>
   </si>
   <si>
@@ -425,6 +578,9 @@
     <t>Tailoring</t>
   </si>
   <si>
+    <t>재봉</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tailor.description</t>
   </si>
   <si>
@@ -434,6 +590,9 @@
     <t>An expertise in tailoring excellent clothes.</t>
   </si>
   <si>
+    <t>옷을 더 빠르게 제작합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Weaponsmith.label</t>
   </si>
   <si>
@@ -443,6 +602,9 @@
     <t>Weaponsmithing</t>
   </si>
   <si>
+    <t>무기 제작</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Weaponsmith.description</t>
   </si>
   <si>
@@ -452,6 +614,9 @@
     <t>An expertise in creating excellent weapons.</t>
   </si>
   <si>
+    <t>무기를 더 빠르게 제작합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+IndustrialProcessExpert.label</t>
   </si>
   <si>
@@ -461,6 +626,9 @@
     <t>Fabricating</t>
   </si>
   <si>
+    <t>부품 제작</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+IndustrialProcessExpert.description</t>
   </si>
   <si>
@@ -470,6 +638,9 @@
     <t>An expertise in crafting components efficiently.</t>
   </si>
   <si>
+    <t>부품을 더 빠르게 제작합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Surgeon.label</t>
   </si>
   <si>
@@ -479,6 +650,9 @@
     <t>Surgery</t>
   </si>
   <si>
+    <t>수술</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Surgeon.description</t>
   </si>
   <si>
@@ -488,6 +662,9 @@
     <t>An expertise in performing safe and effective surgeries.</t>
   </si>
   <si>
+    <t>수술을 더욱 안전하고 효과적으로 시행합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+BattlefieldMedic.label</t>
   </si>
   <si>
@@ -497,6 +674,9 @@
     <t>First Aid</t>
   </si>
   <si>
+    <t>응급 처치</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+BattlefieldMedic.description</t>
   </si>
   <si>
@@ -506,6 +686,9 @@
     <t>An expertise at rapid treatment and medical tend speed.</t>
   </si>
   <si>
+    <t>부상자를 더 신속하게 치료합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+InfectiousDiseaseExpert.label</t>
   </si>
   <si>
@@ -515,6 +698,9 @@
     <t>Nursing</t>
   </si>
   <si>
+    <t>간호</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+InfectiousDiseaseExpert.description</t>
   </si>
   <si>
@@ -524,6 +710,9 @@
     <t>An expertise in caring for ill patients, suffering from various diseases.</t>
   </si>
   <si>
+    <t>질병에 고통받는 환자들을 더 효과적으로 돌봅니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Driller.label</t>
   </si>
   <si>
@@ -533,6 +722,9 @@
     <t>Drilling</t>
   </si>
   <si>
+    <t>심층 채굴</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Driller.description</t>
   </si>
   <si>
@@ -542,6 +734,9 @@
     <t>An expertise in using a deep drill to mine resources more efficiently.</t>
   </si>
   <si>
+    <t>심층 채굴기를 이용해서 더 빠르게 자원을 채굴합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+OreExpert.label</t>
   </si>
   <si>
@@ -551,6 +746,9 @@
     <t>Prospecting</t>
   </si>
   <si>
+    <t>효율적인 채굴</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+OreExpert.description</t>
   </si>
   <si>
@@ -560,6 +758,9 @@
     <t>An expertise in digging up ore and finding more of it.</t>
   </si>
   <si>
+    <t>광석을 채굴할 때 더 많은 광물을 얻습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tunneller.label</t>
   </si>
   <si>
@@ -569,6 +770,9 @@
     <t>Tunnelling</t>
   </si>
   <si>
+    <t>빠른 채굴</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Tunneller.description</t>
   </si>
   <si>
@@ -578,6 +782,9 @@
     <t>An expertise in digging massive tunnels and caverns.</t>
   </si>
   <si>
+    <t>거대한 터널과 동굴을 만드는데 특화됩니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Geologist.label</t>
   </si>
   <si>
@@ -587,6 +794,9 @@
     <t>Geology</t>
   </si>
   <si>
+    <t>지질학</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Geologist.description</t>
   </si>
   <si>
@@ -596,6 +806,9 @@
     <t>An expertise in rocks and obtaining more stone chunks when digging.</t>
   </si>
   <si>
+    <t>채굴시 더 많은 바위 덩어리를 얻습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Pharmacologist.label</t>
   </si>
   <si>
@@ -605,6 +818,9 @@
     <t>Synthesizing</t>
   </si>
   <si>
+    <t>합성</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Pharmacologist.description</t>
   </si>
   <si>
@@ -614,6 +830,9 @@
     <t>An expertise in creating complex drugs efficiently.</t>
   </si>
   <si>
+    <t>복잡한 약물들을 더욱 빠르고 효율적으로 제작합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Hacker.label</t>
   </si>
   <si>
@@ -623,6 +842,9 @@
     <t>Hacking</t>
   </si>
   <si>
+    <t>해킹</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Hacker.description</t>
   </si>
   <si>
@@ -632,6 +854,9 @@
     <t>An expertise in hacking terminals and ancient systems.</t>
   </si>
   <si>
+    <t>고대의 단말기 등의 시설들을 더욱 빠르게 해킹합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Researcher.label</t>
   </si>
   <si>
@@ -641,6 +866,9 @@
     <t>Researching</t>
   </si>
   <si>
+    <t>연구</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Researcher.description</t>
   </si>
   <si>
@@ -650,6 +878,9 @@
     <t>An expertise in researching new technologies.</t>
   </si>
   <si>
+    <t>더 빠르게 연구합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Forager.label</t>
   </si>
   <si>
@@ -659,6 +890,9 @@
     <t>Foraging</t>
   </si>
   <si>
+    <t>채집</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Forager.description</t>
   </si>
   <si>
@@ -668,6 +902,9 @@
     <t>An expertise in living off the land and foraging the fruits of the forest.</t>
   </si>
   <si>
+    <t>상단에서 더 많은 식량을 채집할 수 있습니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Treespeaker.label</t>
   </si>
   <si>
@@ -677,6 +914,9 @@
     <t>Pruning</t>
   </si>
   <si>
+    <t>가지치기</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Treespeaker.description</t>
   </si>
   <si>
@@ -686,6 +926,9 @@
     <t>An expertise in communicating psychically and pruning the Gauranlen trees.</t>
   </si>
   <si>
+    <t>요정나무를 다듬는 속도가 빨라집니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+HarvesterCareful.label</t>
   </si>
   <si>
@@ -695,6 +938,9 @@
     <t>Harvesting</t>
   </si>
   <si>
+    <t>수확</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+HarvesterCareful.description</t>
   </si>
   <si>
@@ -704,6 +950,9 @@
     <t>An expertise in ensuring no parts of the plant are wasted on harvesting.</t>
   </si>
   <si>
+    <t>작물을 수확할 때 낭비되는 양을 줄입니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+GreenThumb.label</t>
   </si>
   <si>
@@ -713,6 +962,9 @@
     <t>Sowing</t>
   </si>
   <si>
+    <t>파종</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+GreenThumb.description</t>
   </si>
   <si>
@@ -722,6 +974,9 @@
     <t>An expertise in quickly sowing and harvesting large amounts of plants.</t>
   </si>
   <si>
+    <t>대량의 작물을 빠르게 파종하고 수확합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Warden.label</t>
   </si>
   <si>
@@ -731,6 +986,9 @@
     <t>Wardening</t>
   </si>
   <si>
+    <t>간수</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Warden.description</t>
   </si>
   <si>
@@ -740,6 +998,9 @@
     <t>An expertise in handling prisoners and slaves, recruiting them and arresting them if needed.</t>
   </si>
   <si>
+    <t>포로와 노예를 관리하고 필요할 경우 더 효율적으로 그들을 체포하거나 모집합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Negotiator.label</t>
   </si>
   <si>
@@ -749,6 +1010,9 @@
     <t>Negotiating</t>
   </si>
   <si>
+    <t>협상</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Negotiator.description</t>
   </si>
   <si>
@@ -758,6 +1022,9 @@
     <t>An expertise in handling negotiations and trading.</t>
   </si>
   <si>
+    <t>협상과 거래를 더욱 효과적으로 실행합니다.</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Proselytizer.label</t>
   </si>
   <si>
@@ -767,6 +1034,9 @@
     <t>Proselytizing</t>
   </si>
   <si>
+    <t>전도</t>
+  </si>
+  <si>
     <t>VSE.Expertise.ExpertiseDef+Proselytizer.description</t>
   </si>
   <si>
@@ -776,6 +1046,9 @@
     <t>An expertise in converting others to their own ways of thinking.</t>
   </si>
   <si>
+    <t>다른 사람들의 이념을 자신의 이념으로 더욱 빠르고 효율적으로 변화시킬 수 있습니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+None.label</t>
   </si>
   <si>
@@ -788,6 +1061,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>없음</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+None.description</t>
   </si>
   <si>
@@ -797,6 +1073,9 @@
     <t>no passion</t>
   </si>
   <si>
+    <t>열정이 없습니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+Minor.label</t>
   </si>
   <si>
@@ -806,6 +1085,9 @@
     <t>interested</t>
   </si>
   <si>
+    <t>약간의 열정</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+Minor.description</t>
   </si>
   <si>
@@ -815,6 +1097,9 @@
     <t>minor passion</t>
   </si>
   <si>
+    <t>사소할정도로 작은 열정입니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+Major.label</t>
   </si>
   <si>
@@ -824,6 +1109,9 @@
     <t>burning</t>
   </si>
   <si>
+    <t>열정</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+Major.description</t>
   </si>
   <si>
@@ -833,6 +1121,9 @@
     <t>major passion</t>
   </si>
   <si>
+    <t>주요 관심사입니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Apathy.label</t>
   </si>
   <si>
@@ -842,6 +1133,9 @@
     <t>apathy</t>
   </si>
   <si>
+    <t>무관심</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Apathy.description</t>
   </si>
   <si>
@@ -851,6 +1145,9 @@
     <t>no interest in this skill</t>
   </si>
   <si>
+    <t>이 기술과 관련된 일에 전혀 관심이 없습니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Natural.label</t>
   </si>
   <si>
@@ -860,6 +1157,9 @@
     <t>natural</t>
   </si>
   <si>
+    <t>재능</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Natural.description</t>
   </si>
   <si>
@@ -869,6 +1169,9 @@
     <t>Naturally good at this skill. However, this means they won’t keep up their practice.</t>
   </si>
   <si>
+    <t>선천적으로 이 기술과 관련된 일에 능숙합니다. 다만 그가 지속적으로 연습한다는 이야기는 아닙니다.</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Critical.label</t>
   </si>
   <si>
@@ -878,6 +1181,9 @@
     <t>critical</t>
   </si>
   <si>
+    <t>중요</t>
+  </si>
+  <si>
     <t>VSE.Passions.PassionDef+VSE_Critical.description</t>
   </si>
   <si>
@@ -887,6 +1193,9 @@
     <t>This skill is extremely important in some way, most likely due to events in their past.</t>
   </si>
   <si>
+    <t>이 기술은 그의 인생에 있어 매우 중요한 일입니다. 과거에 있던 사건과 연관이 있어 보입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArmorPenetrationFactor.label</t>
   </si>
   <si>
@@ -899,6 +1208,9 @@
     <t>armor penetration factor</t>
   </si>
   <si>
+    <t>근접 무기 방어구 관통 계수</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArmorPenetrationFactor.description</t>
   </si>
   <si>
@@ -908,6 +1220,9 @@
     <t>A multiplier applied to armor penetration of attacks by this pawn.</t>
   </si>
   <si>
+    <t>이 정착민이 근접 공격을 할 때 방어 관통력에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_MeleeCooldownFactor.label</t>
   </si>
   <si>
@@ -917,6 +1232,9 @@
     <t>melee cooldown factor</t>
   </si>
   <si>
+    <t>근접 무기 재사용 대기시간 계수</t>
+  </si>
+  <si>
     <t>StatDef+VSE_MeleeCooldownFactor.description</t>
   </si>
   <si>
@@ -926,6 +1244,9 @@
     <t>A multiplier applied to the cooldown of melee attacks by this pawn.</t>
   </si>
   <si>
+    <t>이 정착민이 근접 공격을 하고 난 다음에 생기는 재사용 대기시간에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_AttackOnFailChanceFactor.label</t>
   </si>
   <si>
@@ -935,6 +1256,9 @@
     <t>attack on tame fail chance factor</t>
   </si>
   <si>
+    <t>길들이기시 반격 확률 보정</t>
+  </si>
+  <si>
     <t>StatDef+VSE_AttackOnFailChanceFactor.description</t>
   </si>
   <si>
@@ -944,6 +1268,9 @@
     <t>A multiplier applied to the chance for failed taming attempts to result in animals attacking this pawn.</t>
   </si>
   <si>
+    <t>이 정착민이 야생 동물을 길들이는 것을 실패했을 때 반격당할 확률에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArtQuality.label</t>
   </si>
   <si>
@@ -953,6 +1280,9 @@
     <t>art quality bonus</t>
   </si>
   <si>
+    <t>예술 작품 품질 보너스</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArtQuality.description</t>
   </si>
   <si>
@@ -962,6 +1292,9 @@
     <t>A bonus to the quality of art produced by this pawn.</t>
   </si>
   <si>
+    <t>이 정착민이 만든 예술품이 더 높은 품질이 될 확률에 관여하는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArtSpeed.label</t>
   </si>
   <si>
@@ -971,6 +1304,9 @@
     <t>art creation speed</t>
   </si>
   <si>
+    <t>예술 작업 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ArtSpeed.description</t>
   </si>
   <si>
@@ -980,6 +1316,9 @@
     <t>A multiplier to how fast this pawn creates art.</t>
   </si>
   <si>
+    <t>이 정착민이 예술품을 제작하는 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RoofSpeed.label</t>
   </si>
   <si>
@@ -989,6 +1328,9 @@
     <t>roof work speed</t>
   </si>
   <si>
+    <t>지붕 건설 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RoofSpeed.description</t>
   </si>
   <si>
@@ -998,6 +1340,9 @@
     <t>How fast this pawn can work on roofs.</t>
   </si>
   <si>
+    <t>이 정착민이 지붕을 건설할 때 작업 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_FloorSpeed.label</t>
   </si>
   <si>
@@ -1007,6 +1352,9 @@
     <t>floor work speed</t>
   </si>
   <si>
+    <t>바닥재 건설 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_FloorSpeed.description</t>
   </si>
   <si>
@@ -1016,6 +1364,9 @@
     <t>How fast this pawn can work on floors.</t>
   </si>
   <si>
+    <t>이 정착민이 바닥재를 건설할 때 작업 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RepairSpeed.label</t>
   </si>
   <si>
@@ -1025,6 +1376,9 @@
     <t>repair speed</t>
   </si>
   <si>
+    <t>수리 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RepairSpeed.description</t>
   </si>
   <si>
@@ -1034,6 +1388,9 @@
     <t>How fast this pawn can do repairs.</t>
   </si>
   <si>
+    <t>이 정착민이 수리하는 속도입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ConstructQuality.label</t>
   </si>
   <si>
@@ -1043,6 +1400,9 @@
     <t>construction quality bonus</t>
   </si>
   <si>
+    <t>건축물 품질 보너스</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ConstructQuality.description</t>
   </si>
   <si>
@@ -1052,6 +1412,9 @@
     <t>A bonus added to the quality of things built by this pawn.</t>
   </si>
   <si>
+    <t>이 정착민이 만든 건축물이 더 높은 품질이 될 확률에 관여하는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_TailoringSpeed.label</t>
   </si>
   <si>
@@ -1061,6 +1424,9 @@
     <t>tailoring speed</t>
   </si>
   <si>
+    <t>재봉 작업 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_TailoringSpeed.description</t>
   </si>
   <si>
@@ -1070,6 +1436,9 @@
     <t>How fast this pawn tailors clothes.</t>
   </si>
   <si>
+    <t>이 정착민이 옷을 제작하는 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_WeaponCreationSpeed.label</t>
   </si>
   <si>
@@ -1079,6 +1448,9 @@
     <t>weapon creation speed</t>
   </si>
   <si>
+    <t>무기 제작 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_WeaponCreationSpeed.description</t>
   </si>
   <si>
@@ -1088,6 +1460,9 @@
     <t>How fast this pawn can create weapons.</t>
   </si>
   <si>
+    <t>이 정착민이 무기를 제작하는 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ComponentCraftingSpeed.label</t>
   </si>
   <si>
@@ -1097,6 +1472,9 @@
     <t>component crafting speed</t>
   </si>
   <si>
+    <t>부품 제작 속도</t>
+  </si>
+  <si>
     <t>StatDef+VSE_ComponentCraftingSpeed.description</t>
   </si>
   <si>
@@ -1106,6 +1484,9 @@
     <t>How fast this pawn can create components (both industrial and advanced).</t>
   </si>
   <si>
+    <t>이 정착민이 부품을 제작하는 속도에 곱해지는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RockChunkChance.label</t>
   </si>
   <si>
@@ -1115,6 +1496,9 @@
     <t>rock chunk chance</t>
   </si>
   <si>
+    <t>바위 덩어리 채굴 확률</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RockChunkChance.description</t>
   </si>
   <si>
@@ -1124,6 +1508,9 @@
     <t>The chance for this pawn to get a chunk when mining natural rock.</t>
   </si>
   <si>
+    <t>채굴시 바위 덩어리가 나올 확률에 관여하는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RecruitRate.label</t>
   </si>
   <si>
@@ -1133,6 +1520,9 @@
     <t>recruitment rate</t>
   </si>
   <si>
+    <t>포섭 확률</t>
+  </si>
+  <si>
     <t>StatDef+VSE_RecruitRate.description</t>
   </si>
   <si>
@@ -1142,6 +1532,9 @@
     <t>How fast this pawn can recruit prisoners to the colony.</t>
   </si>
   <si>
+    <t>이 정착민이 포로를 설득 할 때에 관여하는 값입니다.</t>
+  </si>
+  <si>
     <t>StatDef+VSE_PeaceTalksChance.label</t>
   </si>
   <si>
@@ -1151,6 +1544,9 @@
     <t>peace talks success chance</t>
   </si>
   <si>
+    <t>평화 회담 성공 확률</t>
+  </si>
+  <si>
     <t>StatDef+VSE_PeaceTalksChance.description</t>
   </si>
   <si>
@@ -1160,6 +1556,9 @@
     <t>How likely this pawn is to succeed at peace talks.</t>
   </si>
   <si>
+    <t>이 정착민이 평화 회담을 실행할 때에 관여하는 값입니다.</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise0</t>
   </si>
   <si>
@@ -1172,6 +1571,9 @@
     <t>Interested in it</t>
   </si>
   <si>
+    <t>관심있음</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise1</t>
   </si>
   <si>
@@ -1181,6 +1583,9 @@
     <t>Hobbyist</t>
   </si>
   <si>
+    <t>취미</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise2</t>
   </si>
   <si>
@@ -1190,6 +1595,9 @@
     <t>Aspiring Apprentice</t>
   </si>
   <si>
+    <t>초보자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise3</t>
   </si>
   <si>
@@ -1199,6 +1607,9 @@
     <t>Apprentice</t>
   </si>
   <si>
+    <t>기초적</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise4</t>
   </si>
   <si>
@@ -1208,6 +1619,9 @@
     <t>Excellent Apprentice</t>
   </si>
   <si>
+    <t>기본적</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise5</t>
   </si>
   <si>
@@ -1217,12 +1631,30 @@
     <t>Weak Professional</t>
   </si>
   <si>
+    <t>경험자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise6</t>
   </si>
   <si>
     <t>VSE.Expertise6</t>
   </si>
   <si>
+    <t>숙련자</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Professional</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise7</t>
   </si>
   <si>
@@ -1232,6 +1664,9 @@
     <t>Employable Professional</t>
   </si>
   <si>
+    <t>초급 종사자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise8</t>
   </si>
   <si>
@@ -1241,6 +1676,9 @@
     <t>Solid Professional</t>
   </si>
   <si>
+    <t>중급 종사자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise9</t>
   </si>
   <si>
@@ -1250,6 +1688,9 @@
     <t>Skilled Professional</t>
   </si>
   <si>
+    <t>전문가</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise10</t>
   </si>
   <si>
@@ -1259,6 +1700,9 @@
     <t>Very Skilled Professional</t>
   </si>
   <si>
+    <t>숙련 전문가</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise11</t>
   </si>
   <si>
@@ -1268,6 +1712,9 @@
     <t>Almost Expert</t>
   </si>
   <si>
+    <t>고급 전문가</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise12</t>
   </si>
   <si>
@@ -1277,6 +1724,9 @@
     <t>Self-Proclaimed Expert</t>
   </si>
   <si>
+    <t>최고 전문가</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise13</t>
   </si>
   <si>
@@ -1286,6 +1736,9 @@
     <t>Expert</t>
   </si>
   <si>
+    <t>특급 전문가</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise14</t>
   </si>
   <si>
@@ -1295,6 +1748,9 @@
     <t>Strong Expert</t>
   </si>
   <si>
+    <t>장인</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise15</t>
   </si>
   <si>
@@ -1304,6 +1760,9 @@
     <t>Very Strong Expert</t>
   </si>
   <si>
+    <t>지역구 장인</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise16</t>
   </si>
   <si>
@@ -1313,6 +1772,9 @@
     <t>Colony-Known Expert</t>
   </si>
   <si>
+    <t>지역구 선구자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise17</t>
   </si>
   <si>
@@ -1322,6 +1784,9 @@
     <t>Region-Known Expert</t>
   </si>
   <si>
+    <t>행성 장인</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise18</t>
   </si>
   <si>
@@ -1331,6 +1796,9 @@
     <t>Region-Leading Expert</t>
   </si>
   <si>
+    <t>행성 선구자</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise19</t>
   </si>
   <si>
@@ -1340,6 +1808,9 @@
     <t>Planet-Known Expert</t>
   </si>
   <si>
+    <t>인간 문화재</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise20</t>
   </si>
   <si>
@@ -1349,6 +1820,9 @@
     <t>Legendary Expert</t>
   </si>
   <si>
+    <t>전설</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Expertise</t>
   </si>
   <si>
@@ -1358,6 +1832,9 @@
     <t>Expertise</t>
   </si>
   <si>
+    <t>전문화</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ForgetSpeed</t>
   </si>
   <si>
@@ -1367,6 +1844,9 @@
     <t>Forgetting Speed</t>
   </si>
   <si>
+    <t>망각 속도</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Effects</t>
   </si>
   <si>
@@ -1376,6 +1856,9 @@
     <t>Effects:</t>
   </si>
   <si>
+    <t>효과:</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Effects.PerLevel</t>
   </si>
   <si>
@@ -1385,6 +1868,9 @@
     <t>Effects (per level):</t>
   </si>
   <si>
+    <t>효과 (기술 수준 비례):</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ExpertiseAvailable</t>
   </si>
   <si>
@@ -1394,6 +1880,9 @@
     <t>Colonist can gain expertise</t>
   </si>
   <si>
+    <t>전문화를 선택 가능한 정착민이 존재함</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ExpertiseAvailableMultiple</t>
   </si>
   <si>
@@ -1403,6 +1892,9 @@
     <t>Colonists can gain expertise</t>
   </si>
   <si>
+    <t>전문화를 선택 가능한 정착민들이 존재함</t>
+  </si>
+  <si>
     <t>Keyed+VSE.SelectExpertise</t>
   </si>
   <si>
@@ -1412,6 +1904,9 @@
     <t>Select expertise</t>
   </si>
   <si>
+    <t>전문화 습득</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ExpertiseDesc</t>
   </si>
   <si>
@@ -1421,6 +1916,9 @@
     <t>Selecting an expertise will unlock a new skill that your pawn will level up, granting them powerful, but very specific bonuses.\nYou can only select {0} expertise, and only in skills your pawns is passionate about.</t>
   </si>
   <si>
+    <t>전문화를 선택하게 되면 해당 정착민은 등급이 존재하는 새로운 기술을 배우게 되며 강력하지만 매우 한정적인 부가 능력을 얻게 됩니다.\n전문화는 {0}개만 선택 가능하며 해당 정착민이 열정을 가지고 있는 기술만 선택할 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ExpertiseAvailableDesc</t>
   </si>
   <si>
@@ -1430,6 +1928,9 @@
     <t>Your colonist has reached high enough level in a skill they are passionate about that they can gain expertise.\n\nConsider picking an expertise for them to gain new bonuses to the work type they are good at.\n\nColonists that can get expertise:\n\n</t>
   </si>
   <si>
+    <t>정착민 중 한명 이상이 전문적인 지식을 얻을 수 있을 만큼 높은 기술 수준에 도달하였습니다.\n\n그들의 뛰어난 기술 능력을 더욱 이끌어내기 위해서라도 전문화를 선택하는 것을 권장합니다.\n\n전문화가 가능한 정착민 :\n\n</t>
+  </si>
+  <si>
     <t>Keyed+VSE.LearnsForgets</t>
   </si>
   <si>
@@ -1439,6 +1940,9 @@
     <t>\n   - Learns {0}\n   - Forgets {1}</t>
   </si>
   <si>
+    <t>\n   - 학습 속도 : {0}\n   - 망각 속도 : {1}</t>
+  </si>
+  <si>
     <t>Keyed+VSE.LearnOther</t>
   </si>
   <si>
@@ -1448,6 +1952,9 @@
     <t>\n   - Learns Others {0}</t>
   </si>
   <si>
+    <t>\n   - 학습 속도(기타 기술) : {0}</t>
+  </si>
+  <si>
     <t>Keyed+VSE.NoPassion</t>
   </si>
   <si>
@@ -1457,6 +1964,9 @@
     <t>No passion</t>
   </si>
   <si>
+    <t>습득 불가능</t>
+  </si>
+  <si>
     <t>Keyed+VSE.SkillTooLow</t>
   </si>
   <si>
@@ -1466,6 +1976,9 @@
     <t>Insufficient skill</t>
   </si>
   <si>
+    <t>기술 수준 부족</t>
+  </si>
+  <si>
     <t>Keyed+VSE.AtMaxExpertise</t>
   </si>
   <si>
@@ -1475,6 +1988,9 @@
     <t>At max expertise</t>
   </si>
   <si>
+    <t>최대 전문화 도달</t>
+  </si>
+  <si>
     <t>Keyed+VSE.ExpertiseOverlap</t>
   </si>
   <si>
@@ -1484,6 +2000,9 @@
     <t>Expertise overlap</t>
   </si>
   <si>
+    <t>이미 습득함</t>
+  </si>
+  <si>
     <t>Keyed+VSE</t>
   </si>
   <si>
@@ -1502,6 +2021,9 @@
     <t>Maximum expertise per colonist:</t>
   </si>
   <si>
+    <t>최대 전문화 개수:</t>
+  </si>
+  <si>
     <t>Keyed+VSE.AllowMultiCritical</t>
   </si>
   <si>
@@ -1511,6 +2033,9 @@
     <t>Allow multiple critical passions</t>
   </si>
   <si>
+    <t>중요 열정 다수 획득 가능</t>
+  </si>
+  <si>
     <t>Keyed+VSE.AllowMultiCritical.Desc</t>
   </si>
   <si>
@@ -1520,6 +2045,9 @@
     <t>If false, will ensure that only one Critical passion will generate per pawn, to avoid them overlapping and causing them both to be useless.</t>
   </si>
   <si>
+    <t>비활성화할 경우 정착민당 최대 하나의 중요 열정만 생성하도록 하여 둘이 겹쳐서 쓸모없어지는 것을 방지합니다.</t>
+  </si>
+  <si>
     <t>Keyed+VSE.CriticalEffectPassions</t>
   </si>
   <si>
@@ -1529,6 +2057,9 @@
     <t>Critical affects passions</t>
   </si>
   <si>
+    <t>중요 열정 디버프</t>
+  </si>
+  <si>
     <t>Keyed+VSE.CriticalEffectPassions.Desc</t>
   </si>
   <si>
@@ -1538,6 +2069,9 @@
     <t>If false, the learn rate factor debuff on other skills from Critical will not effect other skills the pawn is passionate about.</t>
   </si>
   <si>
+    <t>비활성화할 경우 중요 열정이 존재하더라도 열정이 있는 다른 기술의 학습 속도가 감소하지 않습니다.</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Commonalities</t>
   </si>
   <si>
@@ -1547,6 +2081,9 @@
     <t>Edit passion commonalities, groups are separate</t>
   </si>
   <si>
+    <t>열정 그룹을 편집하며 각 그룹은 분리됩니다</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Reset</t>
   </si>
   <si>
@@ -1556,6 +2093,9 @@
     <t>Reset to default</t>
   </si>
   <si>
+    <t>기본값으로 초기화</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Bad</t>
   </si>
   <si>
@@ -1565,6 +2105,9 @@
     <t>Bad:</t>
   </si>
   <si>
+    <t>부정적:</t>
+  </si>
+  <si>
     <t>Keyed+VSE.Good</t>
   </si>
   <si>
@@ -1574,6 +2117,9 @@
     <t>Good:</t>
   </si>
   <si>
+    <t>긍정적:</t>
+  </si>
+  <si>
     <t>Keyed+VSE.AllowExpertiseOverlap</t>
   </si>
   <si>
@@ -1583,6 +2129,9 @@
     <t>Allow expertise overlap</t>
   </si>
   <si>
+    <t>전문화 중복 허용</t>
+  </si>
+  <si>
     <t>Keyed+VSE.AllowExpertiseOverlap.Desc</t>
   </si>
   <si>
@@ -1592,6 +2141,9 @@
     <t>If false, then only 1 expertise can be chosen per skill, regardless of max expertise setting.</t>
   </si>
   <si>
+    <t>비활성화할 경우 최대 전문화 개수에 관계없이 기술당 1개의 전문화만 선택할 수 있습니다.</t>
+  </si>
+  <si>
     <t>Keyed+VSE.EnableSkillLoss</t>
   </si>
   <si>
@@ -1601,6 +2153,9 @@
     <t>Re-enable skill loss</t>
   </si>
   <si>
+    <t>기술 손실 재활성화</t>
+  </si>
+  <si>
     <t>Keyed+VSE.EnableAlert</t>
   </si>
   <si>
@@ -1610,6 +2165,9 @@
     <t>Enable "Expertise Available" alert</t>
   </si>
   <si>
+    <t>전문화 습득 가능' 알림 활성화</t>
+  </si>
+  <si>
     <t>Keyed+VSE.EnableSkillsLoss.Desc</t>
   </si>
   <si>
@@ -1622,520 +2180,241 @@
     <t>Ducks' Insane Skills 모드가 설치되어 있다면 기본적으로 정착민의 기술 레벨 손실이 비활성화됩니다. 이 설정을 활성화하게 되면 이 모드가 해당 설정을 무시하고 동작하게 됩니다. 해당 설정을 무시하고 기술 레벨과 경험치가 낮아지는것을 원하면 활성화하십시오.</t>
   </si>
   <si>
-    <t>전문화 습득 가능' 알림 활성화</t>
-  </si>
-  <si>
-    <t>기술 손실 재활성화</t>
-  </si>
-  <si>
-    <t>비활성화할 경우 최대 전문화 개수에 관계없이 기술당 1개의 전문화만 선택할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>전문화 중복 허용</t>
-  </si>
-  <si>
-    <t>긍정적:</t>
-  </si>
-  <si>
-    <t>부정적:</t>
-  </si>
-  <si>
-    <t>기본값으로 초기화</t>
-  </si>
-  <si>
-    <t>열정 그룹을 편집하며 각 그룹은 분리됩니다</t>
-  </si>
-  <si>
-    <t>비활성화할 경우 중요 열정이 존재하더라도 열정이 있는 다른 기술의 학습 속도가 감소하지 않습니다.</t>
-  </si>
-  <si>
-    <t>중요 열정 디버프</t>
-  </si>
-  <si>
-    <t>비활성화할 경우 정착민당 최대 하나의 중요 열정만 생성하도록 하여 둘이 겹쳐서 쓸모없어지는 것을 방지합니다.</t>
-  </si>
-  <si>
-    <t>중요 열정 다수 획득 가능</t>
-  </si>
-  <si>
-    <t>최대 전문화 개수:</t>
-  </si>
-  <si>
-    <t>이미 습득함</t>
-  </si>
-  <si>
-    <t>최대 전문화 도달</t>
-  </si>
-  <si>
-    <t>기술 수준 부족</t>
-  </si>
-  <si>
-    <t>습득 불가능</t>
-  </si>
-  <si>
-    <t>\n   - 학습 속도(기타 기술) : {0}</t>
-  </si>
-  <si>
-    <t>\n   - 학습 속도 : {0}\n   - 망각 속도 : {1}</t>
-  </si>
-  <si>
-    <t>정착민 중 한명 이상이 전문적인 지식을 얻을 수 있을 만큼 높은 기술 수준에 도달하였습니다.\n\n그들의 뛰어난 기술 능력을 더욱 이끌어내기 위해서라도 전문화를 선택하는 것을 권장합니다.\n\n전문화가 가능한 정착민 :\n\n</t>
-  </si>
-  <si>
-    <t>전문화를 선택하게 되면 해당 정착민은 등급이 존재하는 새로운 기술을 배우게 되며 강력하지만 매우 한정적인 부가 능력을 얻게 됩니다.\n전문화는 {0}개만 선택 가능하며 해당 정착민이 열정을 가지고 있는 기술만 선택할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>전문화 습득</t>
-  </si>
-  <si>
-    <t>전문화를 선택 가능한 정착민들이 존재함</t>
-  </si>
-  <si>
-    <t>전문화를 선택 가능한 정착민이 존재함</t>
-  </si>
-  <si>
-    <t>효과 (기술 수준 비례):</t>
-  </si>
-  <si>
-    <t>효과:</t>
-  </si>
-  <si>
-    <t>망각 속도</t>
-  </si>
-  <si>
-    <t>전문화</t>
-  </si>
-  <si>
-    <t>전설</t>
-  </si>
-  <si>
-    <t>인간 문화재</t>
-  </si>
-  <si>
-    <t>행성 선구자</t>
-  </si>
-  <si>
-    <t>행성 장인</t>
-  </si>
-  <si>
-    <t>지역구 선구자</t>
-  </si>
-  <si>
-    <t>지역구 장인</t>
-  </si>
-  <si>
-    <t>장인</t>
-  </si>
-  <si>
-    <t>특급 전문가</t>
-  </si>
-  <si>
-    <t>최고 전문가</t>
-  </si>
-  <si>
-    <t>고급 전문가</t>
-  </si>
-  <si>
-    <t>숙련 전문가</t>
-  </si>
-  <si>
-    <t>전문가</t>
-  </si>
-  <si>
-    <t>중급 종사자</t>
-  </si>
-  <si>
-    <t>초급 종사자</t>
-  </si>
-  <si>
-    <t>숙련자</t>
-  </si>
-  <si>
-    <t>경험자</t>
-  </si>
-  <si>
-    <t>기본적</t>
-  </si>
-  <si>
-    <t>기초적</t>
-  </si>
-  <si>
-    <t>초보자</t>
-  </si>
-  <si>
-    <t>취미</t>
-  </si>
-  <si>
-    <t>관심있음</t>
-  </si>
-  <si>
-    <t>이 기술은 그의 인생에 있어 매우 중요한 일입니다. 과거에 있던 사건과 연관이 있어 보입니다.</t>
-  </si>
-  <si>
-    <t>중요</t>
-  </si>
-  <si>
-    <t>선천적으로 이 기술과 관련된 일에 능숙합니다. 다만 그가 지속적으로 연습한다는 이야기는 아닙니다.</t>
-  </si>
-  <si>
-    <t>재능</t>
-  </si>
-  <si>
-    <t>이 기술과 관련된 일에 전혀 관심이 없습니다.</t>
-  </si>
-  <si>
-    <t>무관심</t>
-  </si>
-  <si>
-    <t>주요 관심사입니다.</t>
-  </si>
-  <si>
-    <t>열정</t>
-  </si>
-  <si>
-    <t>사소할정도로 작은 열정입니다.</t>
-  </si>
-  <si>
-    <t>약간의 열정</t>
-  </si>
-  <si>
-    <t>열정이 없습니다.</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>다른 사람들의 이념을 자신의 이념으로 더욱 빠르고 효율적으로 변화시킬 수 있습니다.</t>
-  </si>
-  <si>
-    <t>전도</t>
-  </si>
-  <si>
-    <t>협상과 거래를 더욱 효과적으로 실행합니다.</t>
-  </si>
-  <si>
-    <t>협상</t>
-  </si>
-  <si>
-    <t>포로와 노예를 관리하고 필요할 경우 더 효율적으로 그들을 체포하거나 모집합니다.</t>
-  </si>
-  <si>
-    <t>간수</t>
-  </si>
-  <si>
-    <t>대량의 작물을 빠르게 파종하고 수확합니다.</t>
-  </si>
-  <si>
-    <t>파종</t>
-  </si>
-  <si>
-    <t>작물을 수확할 때 낭비되는 양을 줄입니다.</t>
-  </si>
-  <si>
-    <t>수확</t>
-  </si>
-  <si>
-    <t>요정나무를 다듬는 속도가 빨라집니다.</t>
-  </si>
-  <si>
-    <t>가지치기</t>
-  </si>
-  <si>
-    <t>상단에서 더 많은 식량을 채집할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>채집</t>
-  </si>
-  <si>
-    <t>더 빠르게 연구합니다.</t>
-  </si>
-  <si>
-    <t>연구</t>
-  </si>
-  <si>
-    <t>고대의 단말기 등의 시설들을 더욱 빠르게 해킹합니다.</t>
-  </si>
-  <si>
-    <t>해킹</t>
-  </si>
-  <si>
-    <t>복잡한 약물들을 더욱 빠르고 효율적으로 제작합니다.</t>
-  </si>
-  <si>
-    <t>합성</t>
-  </si>
-  <si>
-    <t>채굴시 더 많은 바위 덩어리를 얻습니다.</t>
-  </si>
-  <si>
-    <t>지질학</t>
-  </si>
-  <si>
-    <t>거대한 터널과 동굴을 만드는데 특화됩니다.</t>
-  </si>
-  <si>
-    <t>빠른 채굴</t>
-  </si>
-  <si>
-    <t>광석을 채굴할 때 더 많은 광물을 얻습니다.</t>
-  </si>
-  <si>
-    <t>효율적인 채굴</t>
-  </si>
-  <si>
-    <t>심층 채굴기를 이용해서 더 빠르게 자원을 채굴합니다.</t>
-  </si>
-  <si>
-    <t>심층 채굴</t>
-  </si>
-  <si>
-    <t>질병에 고통받는 환자들을 더 효과적으로 돌봅니다.</t>
-  </si>
-  <si>
-    <t>간호</t>
-  </si>
-  <si>
-    <t>부상자를 더 신속하게 치료합니다.</t>
-  </si>
-  <si>
-    <t>응급 처치</t>
-  </si>
-  <si>
-    <t>수술을 더욱 안전하고 효과적으로 시행합니다.</t>
-  </si>
-  <si>
-    <t>수술</t>
-  </si>
-  <si>
-    <t>부품을 더 빠르게 제작합니다.</t>
-  </si>
-  <si>
-    <t>부품 제작</t>
-  </si>
-  <si>
-    <t>무기를 더 빠르게 제작합니다.</t>
-  </si>
-  <si>
-    <t>무기 제작</t>
-  </si>
-  <si>
-    <t>옷을 더 빠르게 제작합니다.</t>
-  </si>
-  <si>
-    <t>재봉</t>
-  </si>
-  <si>
-    <t>메카노이드를 더육 빠르고 효율적으로 분해합니다.</t>
-  </si>
-  <si>
-    <t>메카노이드 분해</t>
-  </si>
-  <si>
-    <t>많은 사람들이 먹을 수 있도록 더 빠르게 조리합니다.</t>
-  </si>
-  <si>
-    <t>대량 조리</t>
-  </si>
-  <si>
-    <t>만든 음식이 위생적으로 더 안전해집니다.</t>
-  </si>
-  <si>
-    <t>식품 위생</t>
-  </si>
-  <si>
-    <t>더 빠르게 약물을 제조합니다.</t>
-  </si>
-  <si>
-    <t>약물 제조</t>
-  </si>
-  <si>
-    <t>더 빠르고 효율적으로 도축합니다.</t>
-  </si>
-  <si>
-    <t>도축</t>
-  </si>
-  <si>
-    <t>대량의 구조물들을 빠르고 효율적으로 건설합니다.</t>
-  </si>
-  <si>
-    <t>빠른 건설</t>
-  </si>
-  <si>
-    <t>건설 시 복잡하고 아름다운 구조물이 더 자주 등장합니다.</t>
-  </si>
-  <si>
-    <t>예술적인 건설</t>
-  </si>
-  <si>
-    <t>파손되거나 망가진 구조물을 더 빠르게 수리합니다.</t>
-  </si>
-  <si>
-    <t>수리</t>
-  </si>
-  <si>
-    <t>바닥재를 건설할 때 작업 속도가 빨라집니다.</t>
-  </si>
-  <si>
-    <t>바닥 시공</t>
-  </si>
-  <si>
-    <t>예술품을 더 빠르고 효율적으로 제작합니다.</t>
-  </si>
-  <si>
-    <t>빠른 예술</t>
-  </si>
-  <si>
-    <t>더욱 뛰어난 예술 작품을 만들 확률이 상승합니다.</t>
-  </si>
-  <si>
-    <t>멋진 예술</t>
-  </si>
-  <si>
-    <t>길들인 동물들을 더 높은 확률로 훈련시킵니다.</t>
-  </si>
-  <si>
-    <t>훈련</t>
-  </si>
-  <si>
-    <t>사냥 기술을 더욱 갈고 닦습니다.</t>
-  </si>
-  <si>
-    <t>사냥</t>
-  </si>
-  <si>
-    <t>길들인 동물들에게서 더 많은 자원을 더 빠르게 얻습니다.</t>
-  </si>
-  <si>
-    <t>목축</t>
-  </si>
-  <si>
-    <t>야생 동물들을 더 높은 확률로 길들이고 실패시 공격당할 확률을 낮춥니다.</t>
-  </si>
-  <si>
-    <t>길들이기</t>
-  </si>
-  <si>
-    <t>근접 무기의 공격 후 대기시간이 줄어듭니다.</t>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Sniping.label</t>
+  </si>
+  <si>
+    <t>VSE_Sniping.label</t>
+  </si>
+  <si>
+    <t>Sniping</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Sniping.description</t>
+  </si>
+  <si>
+    <t>VSE_Sniping.description</t>
+  </si>
+  <si>
+    <t>An expertise in firing ranged weapons over much longer distances.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Striking.label</t>
+  </si>
+  <si>
+    <t>VSE_Striking.label</t>
+  </si>
+  <si>
+    <t>Striking</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Striking.description</t>
+  </si>
+  <si>
+    <t>VSE_Striking.description</t>
+  </si>
+  <si>
+    <t>An expertise in hitting accurately with melee attacks.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Smoothing.label</t>
+  </si>
+  <si>
+    <t>VSE_Smoothing.label</t>
+  </si>
+  <si>
+    <t>Smoothing</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Smoothing.description</t>
+  </si>
+  <si>
+    <t>VSE_Smoothing.description</t>
+  </si>
+  <si>
+    <t>An expertise in smoothing surfaces such as walls and floors.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Operating.label</t>
+  </si>
+  <si>
+    <t>VSE_Operating.label</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Operating.description</t>
+  </si>
+  <si>
+    <t>VSE_Operating.description</t>
+  </si>
+  <si>
+    <t>An expertise in performing surgeries quickly and efficiently.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Writing.label</t>
+  </si>
+  <si>
+    <t>VSE_Writing.label</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Writing.description</t>
+  </si>
+  <si>
+    <t>VSE_Writing.description</t>
+  </si>
+  <si>
+    <t>An expertise in both reading and writing books in a timely manner.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_DarkStudy.label</t>
+  </si>
+  <si>
+    <t>VSE_DarkStudy.label</t>
+  </si>
+  <si>
+    <t>Dark study</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_DarkStudy.description</t>
+  </si>
+  <si>
+    <t>VSE_DarkStudy.description</t>
+  </si>
+  <si>
+    <t>An expertise in analyzing and learning from entities and absorbing dark knowledge.</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Lovin.label</t>
+  </si>
+  <si>
+    <t>VSE_Lovin.label</t>
+  </si>
+  <si>
+    <t>Lovin'</t>
+  </si>
+  <si>
+    <t>VSE.Expertise.ExpertiseDef+VSE_Lovin.description</t>
+  </si>
+  <si>
+    <t>VSE_Lovin.description</t>
+  </si>
+  <si>
+    <t>An expertise in lovin’ and social impact.</t>
+  </si>
+  <si>
+    <t>Keyed+VSE.MinSkillForExpertise</t>
+  </si>
+  <si>
+    <t>VSE.MinSkillForExpertise</t>
+  </si>
+  <si>
+    <t>Minimum skill to get an expertise</t>
+  </si>
+  <si>
+    <t>Keyed+VSE.MinSkillForExpertiseDesc</t>
+  </si>
+  <si>
+    <t>VSE.MinSkillForExpertiseDesc</t>
+  </si>
+  <si>
+    <t>The colonist will need to reach this skill level before being offered an expertise.</t>
+  </si>
+  <si>
+    <t>Keyed+VSE.StatMultiplier</t>
+  </si>
+  <si>
+    <t>VSE.StatMultiplier</t>
+  </si>
+  <si>
+    <t>Expertise stat factor / offset multiplier</t>
+  </si>
+  <si>
+    <t>Keyed+VSE.StatMultiplierDesc</t>
+  </si>
+  <si>
+    <t>VSE.StatMultiplierDesc</t>
+  </si>
+  <si>
+    <t>Is our balance too easy? Too hard? Go bitch on Reddit! Errrr... I mean, change it with this slider! The effects expertise have on stats will be multiplied by this number, so 0.1 will make expertise super weak, while 5 will make them incredibly overpowered.</t>
   </si>
   <si>
     <t>속공</t>
-  </si>
-  <si>
-    <t>근접 무기를 사용하면 방어구 관통 보너스를 얻습니다.</t>
-  </si>
-  <si>
-    <t>관통</t>
-  </si>
-  <si>
-    <t>모든 원거리 무기의 재사용 대기시간이 감소합니다.</t>
-  </si>
-  <si>
-    <t>빠른 재장전</t>
-  </si>
-  <si>
-    <t>원거리 무기의 조준 시간이 감소합니다.</t>
-  </si>
-  <si>
-    <t>빠른 조준</t>
-  </si>
-  <si>
-    <t>원거리 무기의 정확도가 상승합니다.</t>
-  </si>
-  <si>
-    <t>정밀 사격</t>
-  </si>
-  <si>
-    <t>이 정착민이 평화 회담을 실행할 때에 관여하는 값입니다.</t>
-  </si>
-  <si>
-    <t>평화 회담 성공 확률</t>
-  </si>
-  <si>
-    <t>이 정착민이 포로를 설득 할 때에 관여하는 값입니다.</t>
-  </si>
-  <si>
-    <t>포섭 확률</t>
-  </si>
-  <si>
-    <t>채굴시 바위 덩어리가 나올 확률에 관여하는 값입니다.</t>
-  </si>
-  <si>
-    <t>바위 덩어리 채굴 확률</t>
-  </si>
-  <si>
-    <t>이 정착민이 부품을 제작하는 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>부품 제작 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 무기를 제작하는 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>무기 제작 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 옷을 제작하는 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>재봉 작업 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 만든 건축물이 더 높은 품질이 될 확률에 관여하는 값입니다.</t>
-  </si>
-  <si>
-    <t>건축물 품질 보너스</t>
-  </si>
-  <si>
-    <t>이 정착민이 수리하는 속도입니다.</t>
-  </si>
-  <si>
-    <t>수리 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 바닥재를 건설할 때 작업 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>바닥재 건설 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 지붕을 건설할 때 작업 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>지붕 건설 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 예술품을 제작하는 속도에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>예술 작업 속도</t>
-  </si>
-  <si>
-    <t>이 정착민이 만든 예술품이 더 높은 품질이 될 확률에 관여하는 값입니다.</t>
-  </si>
-  <si>
-    <t>예술 작품 품질 보너스</t>
-  </si>
-  <si>
-    <t>이 정착민이 야생 동물을 길들이는 것을 실패했을 때 반격당할 확률에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>길들이기시 반격 확률 보정</t>
-  </si>
-  <si>
-    <t>이 정착민이 근접 공격을 하고 난 다음에 생기는 재사용 대기시간에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>근접 무기 재사용 대기시간 계수</t>
-  </si>
-  <si>
-    <t>이 정착민이 근접 공격을 할 때 방어 관통력에 곱해지는 값입니다.</t>
-  </si>
-  <si>
-    <t>근접 무기 방어구 관통 계수</t>
-  </si>
-  <si>
-    <t>Professional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 공격의 명중률이 상승합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기의 사거리가 상승합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽과 바닥을 다듬는 속도가 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다듬기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수술을 더욱 빠르고 효과적으로 시행합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 읽고 쓰는 속도가 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 현상 연구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실체를 분석하고 이상 현상을 연구하는 능력이 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑을 나누는 능력과 사교적 영향력이 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화에 필요한 숙련도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화를 습득하기 위해 필요한 능력치 숙련도를 정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문화 능력치 계수 / 오프셋 승수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밸런스가 너무 쉬운가요? 아니면 너무 어려운가요? 레딧에서 불평하세요...가 아니라, 이 슬라이더로 조정해보세요! 숙련도당 능력치 영향이 이 숫자에 비례해서 조정됩니다. 그러니까 0.1로 설정하면 숙련도의 영향이 엄청 약해질 거고, 5로 설정하면 엄청나게 강력해지겠죠.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2143,7 +2422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2162,13 +2441,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2183,9 +2473,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2487,11 +2778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="C165" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2502,7 +2793,8 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2539,2935 +2831,3242 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>669</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>668</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>666</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>665</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>663</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>662</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>660</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>659</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>658</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>657</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>656</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>655</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>654</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>653</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>652</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>651</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>650</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>649</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>648</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>647</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>646</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>645</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>644</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>643</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>642</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>641</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>640</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>639</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>638</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>637</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>636</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>635</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>634</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>633</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>632</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>631</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>630</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>629</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>628</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>627</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>626</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>625</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>624</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>623</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>622</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>621</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>620</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>619</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>618</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>617</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>616</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>615</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>614</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>613</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>612</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>611</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>610</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>609</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>608</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>607</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>606</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>605</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>604</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>603</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>602</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>601</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>600</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>599</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>598</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>597</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>596</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>595</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>594</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>593</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>592</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>591</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>590</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>589</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>588</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>587</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>586</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>584</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>583</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>582</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>581</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>580</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>579</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>578</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>699</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>698</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>697</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>696</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>695</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>694</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>693</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>692</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>691</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>690</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>689</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>688</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>687</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>686</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>685</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>684</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>683</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>682</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>681</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>343</v>
+        <v>453</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>680</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>346</v>
+        <v>457</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>347</v>
+        <v>458</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>679</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>678</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>677</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>354</v>
+        <v>468</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>356</v>
+        <v>470</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>676</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>359</v>
+        <v>474</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>675</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>362</v>
+        <v>478</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>674</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>365</v>
+        <v>482</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>673</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>367</v>
+        <v>485</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>368</v>
+        <v>486</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>672</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>671</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>670</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>576</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>382</v>
+        <v>505</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>388</v>
+        <v>513</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>390</v>
+        <v>515</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>393</v>
+        <v>519</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>394</v>
+        <v>521</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>395</v>
+        <v>522</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>398</v>
+        <v>527</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>399</v>
+        <v>529</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>401</v>
+        <v>531</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>405</v>
+        <v>537</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>407</v>
+        <v>539</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>411</v>
+        <v>545</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>412</v>
+        <v>546</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>413</v>
+        <v>547</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>414</v>
+        <v>549</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>417</v>
+        <v>553</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>418</v>
+        <v>554</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>419</v>
+        <v>555</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>420</v>
+        <v>557</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>423</v>
+        <v>561</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>425</v>
+        <v>563</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>426</v>
+        <v>565</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>427</v>
+        <v>566</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>429</v>
+        <v>569</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>431</v>
+        <v>571</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>432</v>
+        <v>573</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>433</v>
+        <v>574</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>434</v>
+        <v>575</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>436</v>
+        <v>578</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>437</v>
+        <v>579</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>440</v>
+        <v>583</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>441</v>
+        <v>585</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>442</v>
+        <v>586</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>443</v>
+        <v>587</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>445</v>
+        <v>590</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>446</v>
+        <v>591</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>448</v>
+        <v>594</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>451</v>
+        <v>598</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>453</v>
+        <v>601</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>454</v>
+        <v>602</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>455</v>
+        <v>603</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>456</v>
+        <v>605</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>457</v>
+        <v>606</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>458</v>
+        <v>607</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>459</v>
+        <v>609</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>460</v>
+        <v>610</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>461</v>
+        <v>611</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>462</v>
+        <v>613</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>463</v>
+        <v>614</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>464</v>
+        <v>615</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>466</v>
+        <v>618</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>467</v>
+        <v>619</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>468</v>
+        <v>621</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>469</v>
+        <v>622</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>470</v>
+        <v>623</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>471</v>
+        <v>625</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>472</v>
+        <v>626</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>473</v>
+        <v>627</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>474</v>
+        <v>629</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>476</v>
+        <v>631</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>544</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>477</v>
+        <v>633</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>478</v>
+        <v>634</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>543</v>
+        <v>636</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>480</v>
+        <v>637</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>481</v>
+        <v>638</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>482</v>
+        <v>639</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>484</v>
+        <v>642</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>486</v>
+        <v>644</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>541</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>489</v>
+        <v>648</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>490</v>
+        <v>649</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>491</v>
+        <v>650</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>540</v>
+        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>492</v>
+        <v>652</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>493</v>
+        <v>653</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>494</v>
+        <v>654</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>539</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>495</v>
+        <v>656</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>496</v>
+        <v>657</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>497</v>
+        <v>658</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>538</v>
+        <v>659</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>498</v>
+        <v>660</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>499</v>
+        <v>661</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>537</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>501</v>
+        <v>664</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>502</v>
+        <v>665</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>503</v>
+        <v>666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>536</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>504</v>
+        <v>668</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>505</v>
+        <v>669</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>506</v>
+        <v>670</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>535</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>507</v>
+        <v>672</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>508</v>
+        <v>673</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>509</v>
+        <v>674</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>534</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>510</v>
+        <v>676</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>512</v>
+        <v>678</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>533</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>513</v>
+        <v>680</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>514</v>
+        <v>681</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>515</v>
+        <v>682</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>516</v>
+        <v>684</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>517</v>
+        <v>685</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>518</v>
+        <v>686</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>531</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>519</v>
+        <v>688</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>520</v>
+        <v>689</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>521</v>
+        <v>690</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>530</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>522</v>
+        <v>692</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>523</v>
+        <v>693</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>524</v>
+        <v>694</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>529</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>525</v>
+        <v>696</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>526</v>
+        <v>697</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>527</v>
+        <v>698</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>528</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>